--- a/Data_processed/CM_SP17.xlsx
+++ b/Data_processed/CM_SP17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/Desktop/Tris_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PikesStuff/github/McHugh-et-al/Data_processed/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682B4F85-D1BE-404B-8F87-710122543E9C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F72848-F739-0145-838F-EC64C01A2663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25840" yWindow="-1140" windowWidth="15340" windowHeight="15060" firstSheet="3" activeTab="7" xr2:uid="{823FF86D-F38B-CC46-AAF5-B0A840F37F11}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="7" xr2:uid="{823FF86D-F38B-CC46-AAF5-B0A840F37F11}"/>
   </bookViews>
   <sheets>
     <sheet name="Thinwire" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="13">
   <si>
     <t>PAR</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Callophyllis</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>pmax</t>
   </si>
 </sst>
 </file>
@@ -100,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,15 +423,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5E623DA-ECF5-1A46-8F95-AA29F24FD28A}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +444,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -451,8 +464,14 @@
       <c r="D2">
         <v>3.1007751937984494E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -465,8 +484,14 @@
       <c r="D3">
         <v>1.1550387596899224E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -479,8 +504,14 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -493,8 +524,14 @@
       <c r="D5">
         <v>1.0310077519379845E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -507,8 +544,14 @@
       <c r="D6">
         <v>2.8682170542635658E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -521,8 +564,14 @@
       <c r="D7">
         <v>5.9689922480620155E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -535,8 +584,14 @@
       <c r="D8">
         <v>4.883720930232558E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -549,8 +604,14 @@
       <c r="D9">
         <v>1.2868217054263565E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -563,8 +624,14 @@
       <c r="D10">
         <v>8.9430894308943092E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -577,8 +644,14 @@
       <c r="D11">
         <v>2.0731707317073173E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -591,8 +664,14 @@
       <c r="D12">
         <v>8.9430894308943092E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -605,8 +684,14 @@
       <c r="D13">
         <v>4.959349593495935E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -619,8 +704,14 @@
       <c r="D14">
         <v>2.3577235772357724E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -633,8 +724,14 @@
       <c r="D15">
         <v>1.3983739837398375E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -647,8 +744,14 @@
       <c r="D16">
         <v>1.2926829268292681E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -661,8 +764,14 @@
       <c r="D17">
         <v>6.0975609756097554E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -675,8 +784,14 @@
       <c r="D18">
         <v>5.0793650793650794E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -689,8 +804,14 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -703,8 +824,14 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -717,8 +844,14 @@
       <c r="D21">
         <v>2.126984126984127E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -731,8 +864,14 @@
       <c r="D22">
         <v>2.0634920634920633E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -745,8 +884,14 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -759,8 +904,14 @@
       <c r="D24">
         <v>2.8571428571428574E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.15037049999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -772,6 +923,12 @@
       </c>
       <c r="D25">
         <v>8.730158730158731E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2.4722240000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.15037049999999999</v>
       </c>
     </row>
   </sheetData>
@@ -781,15 +938,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{852A5AB9-589F-A046-9C3D-F2A7029CC1DC}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -802,8 +959,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -816,8 +979,14 @@
       <c r="D2">
         <v>-2.5607064017660043E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -830,8 +999,14 @@
       <c r="D3">
         <v>3.9293598233995583E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -844,8 +1019,14 @@
       <c r="D4">
         <v>4.2825607064017657E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -858,8 +1039,14 @@
       <c r="D5">
         <v>6.1368653421633545E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -872,8 +1059,14 @@
       <c r="D6">
         <v>7.9470198675496691E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -886,8 +1079,14 @@
       <c r="D7">
         <v>1.0573951434878586E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -900,8 +1099,14 @@
       <c r="D8">
         <v>1.1302428256070639E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -914,8 +1119,14 @@
       <c r="D9">
         <v>1.0507726269315673E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -928,8 +1139,14 @@
       <c r="D10">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -942,8 +1159,14 @@
       <c r="D11">
         <v>5.0178571428571432E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -956,8 +1179,14 @@
       <c r="D12">
         <v>4.5178571428571433E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -970,8 +1199,14 @@
       <c r="D13">
         <v>8.0714285714285713E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -984,8 +1219,14 @@
       <c r="D14">
         <v>1.0375000000000001E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -998,8 +1239,14 @@
       <c r="D15">
         <v>1.1339285714285715E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1012,8 +1259,14 @@
       <c r="D16">
         <v>1.175E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1026,8 +1279,14 @@
       <c r="D17">
         <v>1.0607142857142858E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1040,8 +1299,14 @@
       <c r="D18">
         <v>1.2266666666666667E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1054,8 +1319,14 @@
       <c r="D19">
         <v>4.6933333333333333E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1068,8 +1339,14 @@
       <c r="D20">
         <v>7.9999999999999993E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1082,8 +1359,14 @@
       <c r="D21">
         <v>9.6266666666666671E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1096,8 +1379,14 @@
       <c r="D22">
         <v>1.0373333333333334E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1110,8 +1399,14 @@
       <c r="D23">
         <v>1.1920000000000001E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1124,8 +1419,14 @@
       <c r="D24">
         <v>1.3439999999999999E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.2303337</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1137,6 +1438,12 @@
       </c>
       <c r="D25">
         <v>1.2026666666666667E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>5.7188590000000003E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.2303337</v>
       </c>
     </row>
   </sheetData>
@@ -1146,15 +1453,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3882A190-F076-2D45-B75B-2178362DAF27}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1167,8 +1474,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1181,8 +1494,14 @@
       <c r="D2">
         <v>1.5234374999999999E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1195,8 +1514,14 @@
       <c r="D3">
         <v>8.3593749999999996E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1209,8 +1534,14 @@
       <c r="D4">
         <v>1.03515625E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1223,8 +1554,14 @@
       <c r="D5">
         <v>1.27734375E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1237,8 +1574,14 @@
       <c r="D6">
         <v>1.4023437500000001E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1251,8 +1594,14 @@
       <c r="D7">
         <v>1.3281250000000001E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1265,8 +1614,14 @@
       <c r="D8">
         <v>1.2187499999999999E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1279,8 +1634,14 @@
       <c r="D9">
         <v>1.3046875E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1293,8 +1654,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1307,8 +1674,14 @@
       <c r="D11">
         <v>5.6900212314225053E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1321,8 +1694,14 @@
       <c r="D12">
         <v>4.2250530785562635E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1335,8 +1714,14 @@
       <c r="D13">
         <v>7.1762208067940544E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1349,8 +1734,14 @@
       <c r="D14">
         <v>1.0276008492569003E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1363,8 +1754,14 @@
       <c r="D15">
         <v>9.7239915074309982E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1377,8 +1774,14 @@
       <c r="D16">
         <v>8.2165605095541391E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1391,8 +1794,14 @@
       <c r="D17">
         <v>9.2569002123142253E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1405,8 +1814,14 @@
       <c r="D18">
         <v>1.5151515151515152E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1419,8 +1834,14 @@
       <c r="D19">
         <v>3.8705234159779616E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1433,8 +1854,14 @@
       <c r="D20">
         <v>4.3663911845730032E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1447,8 +1874,14 @@
       <c r="D21">
         <v>7.2314049586776863E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1461,8 +1894,14 @@
       <c r="D22">
         <v>8.1267217630854005E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1475,8 +1914,14 @@
       <c r="D23">
         <v>8.1129476584022045E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1489,8 +1934,14 @@
       <c r="D24">
         <v>6.9421487603305793E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.29899110000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1502,6 +1953,12 @@
       </c>
       <c r="D25">
         <v>7.0110192837465564E-5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.4528659999999997E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.29899110000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1511,15 +1968,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE31B00-9357-2942-9653-67267ED265D6}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E2" sqref="E2:F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1532,8 +1989,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1546,8 +2009,14 @@
       <c r="D2">
         <v>-1.8304431599229286E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1560,8 +2029,14 @@
       <c r="D3">
         <v>3.1021194605009631E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1574,8 +2049,14 @@
       <c r="D4">
         <v>3.0500963391136797E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1588,8 +2069,14 @@
       <c r="D5">
         <v>1.1522157996146435E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -1602,8 +2089,14 @@
       <c r="D6">
         <v>1.4682080924855489E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -1616,8 +2109,14 @@
       <c r="D7">
         <v>1.4855491329479769E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -1630,8 +2129,14 @@
       <c r="D8">
         <v>1.6127167630057801E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -1644,8 +2149,14 @@
       <c r="D9">
         <v>1.1772639691714835E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1658,8 +2169,14 @@
       <c r="D10">
         <v>-7.7625570776255703E-6</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1672,8 +2189,14 @@
       <c r="D11">
         <v>3.6834094368340941E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1686,8 +2209,14 @@
       <c r="D12">
         <v>4.0334855403348554E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1700,8 +2229,14 @@
       <c r="D13">
         <v>9.2998477929984779E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -1714,8 +2249,14 @@
       <c r="D14">
         <v>1.0578386605783866E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -1728,8 +2269,14 @@
       <c r="D15">
         <v>1.0410958904109589E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -1742,8 +2289,14 @@
       <c r="D16">
         <v>1.2130898021308978E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -1756,8 +2309,14 @@
       <c r="D17">
         <v>1.2922374429223744E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1770,8 +2329,14 @@
       <c r="D18">
         <v>-1.9710144927536229E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1784,8 +2349,14 @@
       <c r="D19">
         <v>6.7536231884057961E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1798,8 +2369,14 @@
       <c r="D20">
         <v>8.6666666666666668E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1812,8 +2389,14 @@
       <c r="D21">
         <v>1.2608695652173912E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -1826,8 +2409,14 @@
       <c r="D22">
         <v>1.7246376811594203E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -1840,8 +2429,14 @@
       <c r="D23">
         <v>2.1072463768115942E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -1854,8 +2449,14 @@
       <c r="D24">
         <v>2.3304347826086957E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.3599427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -1867,6 +2468,12 @@
       </c>
       <c r="D25">
         <v>2.3304347826086957E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.8100950000000002E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.3599427</v>
       </c>
     </row>
   </sheetData>
@@ -1876,15 +2483,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7798B0A-D7D6-AF4F-B293-622249866265}">
-  <dimension ref="L1:O25"/>
+  <dimension ref="L1:Q25"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="12:15">
+    <row r="1" spans="12:17">
       <c r="L1" t="s">
         <v>0</v>
       </c>
@@ -1897,8 +2504,14 @@
       <c r="O1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="12:15">
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17">
       <c r="L2">
         <v>0</v>
       </c>
@@ -1911,8 +2524,14 @@
       <c r="O2">
         <v>4.3093922651933698E-5</v>
       </c>
-    </row>
-    <row r="3" spans="12:15">
+      <c r="P2" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q2">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17">
       <c r="L3">
         <v>2</v>
       </c>
@@ -1925,8 +2544,14 @@
       <c r="O3">
         <v>5.9530386740331492E-5</v>
       </c>
-    </row>
-    <row r="4" spans="12:15">
+      <c r="P3" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q3">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17">
       <c r="L4">
         <v>3</v>
       </c>
@@ -1939,8 +2564,14 @@
       <c r="O4">
         <v>4.4613259668508282E-5</v>
       </c>
-    </row>
-    <row r="5" spans="12:15">
+      <c r="P4" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q4">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17">
       <c r="L5">
         <v>8</v>
       </c>
@@ -1953,8 +2584,14 @@
       <c r="O5">
         <v>6.5883977900552479E-5</v>
       </c>
-    </row>
-    <row r="6" spans="12:15">
+      <c r="P5" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q5">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17">
       <c r="L6">
         <v>30</v>
       </c>
@@ -1967,8 +2604,14 @@
       <c r="O6">
         <v>7.1823204419889497E-5</v>
       </c>
-    </row>
-    <row r="7" spans="12:15">
+      <c r="P6" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q6">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17">
       <c r="L7">
         <v>40</v>
       </c>
@@ -1981,8 +2624,14 @@
       <c r="O7">
         <v>7.0994475138121547E-5</v>
       </c>
-    </row>
-    <row r="8" spans="12:15">
+      <c r="P7" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q7">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17">
       <c r="L8">
         <v>62</v>
       </c>
@@ -1995,8 +2644,14 @@
       <c r="O8">
         <v>7.1546961325966851E-5</v>
       </c>
-    </row>
-    <row r="9" spans="12:15">
+      <c r="P8" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q8">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17">
       <c r="L9">
         <v>116</v>
       </c>
@@ -2009,8 +2664,14 @@
       <c r="O9">
         <v>7.3066298342541435E-5</v>
       </c>
-    </row>
-    <row r="10" spans="12:15">
+      <c r="P9" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q9">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17">
       <c r="L10">
         <v>0</v>
       </c>
@@ -2023,8 +2684,14 @@
       <c r="O10">
         <v>-2.977777777777778E-5</v>
       </c>
-    </row>
-    <row r="11" spans="12:15">
+      <c r="P10" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q10">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17">
       <c r="L11">
         <v>2</v>
       </c>
@@ -2037,8 +2704,14 @@
       <c r="O11">
         <v>6.1333333333333324E-5</v>
       </c>
-    </row>
-    <row r="12" spans="12:15">
+      <c r="P11" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q11">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17">
       <c r="L12">
         <v>3</v>
       </c>
@@ -2051,8 +2724,14 @@
       <c r="O12">
         <v>2.2666666666666668E-5</v>
       </c>
-    </row>
-    <row r="13" spans="12:15">
+      <c r="P12" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q12">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17">
       <c r="L13">
         <v>8</v>
       </c>
@@ -2065,8 +2744,14 @@
       <c r="O13">
         <v>2.1333333333333335E-5</v>
       </c>
-    </row>
-    <row r="14" spans="12:15">
+      <c r="P13" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q13">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17">
       <c r="L14">
         <v>30</v>
       </c>
@@ -2079,8 +2764,14 @@
       <c r="O14">
         <v>4.3555555555555551E-5</v>
       </c>
-    </row>
-    <row r="15" spans="12:15">
+      <c r="P14" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q14">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17">
       <c r="L15">
         <v>40</v>
       </c>
@@ -2093,8 +2784,14 @@
       <c r="O15">
         <v>9.7333333333333332E-5</v>
       </c>
-    </row>
-    <row r="16" spans="12:15">
+      <c r="P15" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q15">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17">
       <c r="L16">
         <v>62</v>
       </c>
@@ -2107,8 +2804,14 @@
       <c r="O16">
         <v>1.2711111111111113E-4</v>
       </c>
-    </row>
-    <row r="17" spans="12:15">
+      <c r="P16" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q16">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17">
       <c r="L17">
         <v>116</v>
       </c>
@@ -2121,8 +2824,14 @@
       <c r="O17">
         <v>1.2711111111111113E-4</v>
       </c>
-    </row>
-    <row r="18" spans="12:15">
+      <c r="P17" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q17">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17">
       <c r="L18">
         <v>0</v>
       </c>
@@ -2135,8 +2844,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="12:15">
+      <c r="P18" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q18">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17">
       <c r="L19">
         <v>2</v>
       </c>
@@ -2149,8 +2864,14 @@
       <c r="O19">
         <v>1.2213740458015266E-5</v>
       </c>
-    </row>
-    <row r="20" spans="12:15">
+      <c r="P19" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q19">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17">
       <c r="L20">
         <v>3</v>
       </c>
@@ -2163,8 +2884,14 @@
       <c r="O20">
         <v>1.5954198473282444E-4</v>
       </c>
-    </row>
-    <row r="21" spans="12:15">
+      <c r="P20" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q20">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17">
       <c r="L21">
         <v>8</v>
       </c>
@@ -2177,8 +2904,14 @@
       <c r="O21">
         <v>6.1068702290076329E-6</v>
       </c>
-    </row>
-    <row r="22" spans="12:15">
+      <c r="P21" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q21">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17">
       <c r="L22">
         <v>30</v>
       </c>
@@ -2191,8 +2924,14 @@
       <c r="O22">
         <v>1.1908396946564884E-4</v>
       </c>
-    </row>
-    <row r="23" spans="12:15">
+      <c r="P22" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q22">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17">
       <c r="L23">
         <v>40</v>
       </c>
@@ -2205,8 +2944,14 @@
       <c r="O23">
         <v>1.4732824427480916E-4</v>
       </c>
-    </row>
-    <row r="24" spans="12:15">
+      <c r="P23" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q23">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17">
       <c r="L24">
         <v>62</v>
       </c>
@@ -2219,8 +2964,14 @@
       <c r="O24">
         <v>9.1603053435114501E-6</v>
       </c>
-    </row>
-    <row r="25" spans="12:15">
+      <c r="P24" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q24">
+        <v>0.18771309999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17">
       <c r="L25">
         <v>116</v>
       </c>
@@ -2232,6 +2983,12 @@
       </c>
       <c r="O25">
         <v>8.0916030534351139E-5</v>
+      </c>
+      <c r="P25" s="1">
+        <v>5.3071719999999997E-5</v>
+      </c>
+      <c r="Q25">
+        <v>0.18771309999999999</v>
       </c>
     </row>
   </sheetData>
@@ -2241,15 +2998,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAFF864F-4E75-0D47-8344-084CD826FAE1}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2262,8 +3019,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2276,8 +3039,14 @@
       <c r="D2">
         <v>4.1666666666666672E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F2">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2290,8 +3059,14 @@
       <c r="D3">
         <v>1.3970588235294118E-4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F3">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2304,8 +3079,14 @@
       <c r="D4">
         <v>2.0441176470588235E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F4">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2318,8 +3099,14 @@
       <c r="D5">
         <v>2.3823529411764707E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F5">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2332,8 +3119,14 @@
       <c r="D6">
         <v>2.8382352941176469E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F6">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2346,8 +3139,14 @@
       <c r="D7">
         <v>3.5147058823529407E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F7">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -2360,8 +3159,14 @@
       <c r="D8">
         <v>4.122549019607843E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F8">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2374,8 +3179,14 @@
       <c r="D9">
         <v>1.4215686274509804E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F9">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2388,8 +3199,14 @@
       <c r="D10">
         <v>-7.6666666666666683E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F10">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2402,8 +3219,14 @@
       <c r="D11">
         <v>5.8181818181818185E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F11">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2416,8 +3239,14 @@
       <c r="D12">
         <v>8.7272727272727285E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2430,8 +3259,14 @@
       <c r="D13">
         <v>1.3212121212121213E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F13">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2444,8 +3279,14 @@
       <c r="D14">
         <v>1.2E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F14">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2458,8 +3299,14 @@
       <c r="D15">
         <v>1.378787878787879E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2472,8 +3319,14 @@
       <c r="D16">
         <v>1.4151515151515152E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F16">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2486,8 +3339,14 @@
       <c r="D17">
         <v>1.7545454545454545E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F17">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2500,8 +3359,14 @@
       <c r="D18">
         <v>1.5492957746478872E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F18">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2514,8 +3379,14 @@
       <c r="D19">
         <v>5.0000000000000002E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F19">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2528,8 +3399,14 @@
       <c r="D20">
         <v>1.4330985915492959E-4</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F20">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2542,8 +3419,14 @@
       <c r="D21">
         <v>1.8239436619718312E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F21">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2556,8 +3439,14 @@
       <c r="D22">
         <v>1.9788732394366199E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F22">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2570,8 +3459,14 @@
       <c r="D23">
         <v>2.0598591549295776E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F23">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2584,8 +3479,14 @@
       <c r="D24">
         <v>2.4647887323943661E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F24">
+        <v>0.21708060000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2597,6 +3498,12 @@
       </c>
       <c r="D25">
         <v>1.5809859154929578E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>1.2357279999999999E-4</v>
+      </c>
+      <c r="F25">
+        <v>0.21708060000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2606,15 +3513,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3990F845-088C-4947-93BE-750CC4EBC890}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2627,8 +3534,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -2641,8 +3554,14 @@
       <c r="D2">
         <v>-1.4398422090729783E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2655,8 +3574,14 @@
       <c r="D3">
         <v>2.9092702169625245E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2669,8 +3594,14 @@
       <c r="D4">
         <v>3.3727810650887574E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -2683,8 +3614,14 @@
       <c r="D5">
         <v>6.9625246548323476E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -2697,8 +3634,14 @@
       <c r="D6">
         <v>8.1459566074950688E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -2711,8 +3654,14 @@
       <c r="D7">
         <v>9.2800788954635108E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -2725,8 +3674,14 @@
       <c r="D8">
         <v>9.2899408284023661E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -2739,8 +3694,14 @@
       <c r="D9">
         <v>1.2465483234714003E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -2753,8 +3714,14 @@
       <c r="D10">
         <v>-2.2356215213358071E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2767,8 +3734,14 @@
       <c r="D11">
         <v>2.3747680890538035E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -2781,8 +3754,14 @@
       <c r="D12">
         <v>3.3580705009276443E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -2795,8 +3774,14 @@
       <c r="D13">
         <v>6.4935064935064935E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -2809,8 +3794,14 @@
       <c r="D14">
         <v>1.0500927643784787E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -2823,8 +3814,14 @@
       <c r="D15">
         <v>1.2727272727272728E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -2837,8 +3834,14 @@
       <c r="D16">
         <v>1.401669758812616E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -2851,8 +3854,14 @@
       <c r="D17">
         <v>1.4601113172541745E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2865,8 +3874,14 @@
       <c r="D18">
         <v>-1.4332784184514002E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2879,8 +3894,14 @@
       <c r="D19">
         <v>8.8962108731466227E-6</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -2893,8 +3914,14 @@
       <c r="D20">
         <v>2.3146622734761119E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -2907,8 +3934,14 @@
       <c r="D21">
         <v>3.5420098846787475E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -2921,8 +3954,14 @@
       <c r="D22">
         <v>5.2553542009884677E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -2935,8 +3974,14 @@
       <c r="D23">
         <v>7.6441515650741353E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -2949,8 +3994,14 @@
       <c r="D24">
         <v>8.6655683690280066E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.2891164</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -2962,6 +4013,12 @@
       </c>
       <c r="D25">
         <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>3.5272640000000001E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.2891164</v>
       </c>
     </row>
   </sheetData>
@@ -2971,15 +4028,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90682535-09C2-924E-933D-271A4732AD07}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2992,8 +4049,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3006,8 +4069,14 @@
       <c r="D2">
         <v>-3.6363636363636357E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F2">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3020,8 +4089,14 @@
       <c r="D3">
         <v>2.9090909090909086E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F3">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3034,8 +4109,14 @@
       <c r="D4">
         <v>3.7272727272727269E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F4">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>8</v>
       </c>
@@ -3048,8 +4129,14 @@
       <c r="D5">
         <v>1.1727272727272726E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F5">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>30</v>
       </c>
@@ -3062,8 +4149,14 @@
       <c r="D6">
         <v>1.5818181818181816E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F6">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>40</v>
       </c>
@@ -3076,8 +4169,14 @@
       <c r="D7">
         <v>1.7272727272727272E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F7">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>62</v>
       </c>
@@ -3090,8 +4189,14 @@
       <c r="D8">
         <v>1.7636363636363634E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F8">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9">
         <v>116</v>
       </c>
@@ -3104,8 +4209,14 @@
       <c r="D9">
         <v>1.7818181818181816E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F9">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10">
         <v>0</v>
       </c>
@@ -3118,8 +4229,14 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F10">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3132,8 +4249,14 @@
       <c r="D11">
         <v>1.7985074626865671E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F11">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12">
         <v>3</v>
       </c>
@@ -3146,8 +4269,14 @@
       <c r="D12">
         <v>1.3134328358208955E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F12">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13">
         <v>8</v>
       </c>
@@ -3160,8 +4289,14 @@
       <c r="D13">
         <v>8.3582089552238794E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14">
         <v>30</v>
       </c>
@@ -3174,8 +4309,14 @@
       <c r="D14">
         <v>1.6865671641791042E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F14">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15">
         <v>40</v>
       </c>
@@ -3188,8 +4329,14 @@
       <c r="D15">
         <v>1.3731343283582089E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16">
         <v>62</v>
       </c>
@@ -3202,8 +4349,14 @@
       <c r="D16">
         <v>1.8432835820895522E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17">
         <v>116</v>
       </c>
@@ -3216,8 +4369,14 @@
       <c r="D17">
         <v>1.6940298507462685E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18">
         <v>0</v>
       </c>
@@ -3230,8 +4389,14 @@
       <c r="D18">
         <v>5.3333333333333328E-6</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3244,8 +4409,14 @@
       <c r="D19">
         <v>4.4000000000000006E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F19">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3258,8 +4429,14 @@
       <c r="D20">
         <v>5.8666666666666665E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F20">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21">
         <v>8</v>
       </c>
@@ -3272,8 +4449,14 @@
       <c r="D21">
         <v>1.1066666666666667E-4</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F21">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22">
         <v>30</v>
       </c>
@@ -3286,8 +4469,14 @@
       <c r="D22">
         <v>2.0733333333333335E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F22">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23">
         <v>40</v>
       </c>
@@ -3300,8 +4489,14 @@
       <c r="D23">
         <v>1.9133333333333331E-4</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F23">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24">
         <v>62</v>
       </c>
@@ -3314,8 +4509,14 @@
       <c r="D24">
         <v>5.126666666666667E-4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F24">
+        <v>0.37328099999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25">
         <v>116</v>
       </c>
@@ -3327,6 +4528,12 @@
       </c>
       <c r="D25">
         <v>5.126666666666667E-4</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.8415399999999997E-5</v>
+      </c>
+      <c r="F25">
+        <v>0.37328099999999997</v>
       </c>
     </row>
   </sheetData>
